--- a/report_zone/Report_zone1.xlsx
+++ b/report_zone/Report_zone1.xlsx
@@ -2409,7 +2409,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       <c r="HE3" t="inlineStr"/>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       <c r="HE7" t="inlineStr"/>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="HE11" t="inlineStr"/>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       <c r="HE12" t="inlineStr"/>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -12657,7 +12657,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -19629,7 +19629,7 @@
       <c r="HE22" t="inlineStr"/>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -22281,7 +22281,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -23189,7 +23189,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -25021,7 +25021,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -25929,7 +25929,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -26837,7 +26837,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -28649,7 +28649,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -29557,7 +29557,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -30369,7 +30369,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -31249,7 +31249,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -32149,7 +32149,7 @@
       <c r="HE36" t="inlineStr"/>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -32993,7 +32993,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -33825,7 +33825,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -35597,7 +35597,7 @@
       <c r="HE40" t="inlineStr"/>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -36453,7 +36453,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -37365,7 +37365,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -38165,7 +38165,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -39073,7 +39073,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -39981,7 +39981,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -40837,7 +40837,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -41745,7 +41745,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -42653,7 +42653,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -43561,7 +43561,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -44469,7 +44469,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -45381,7 +45381,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -46289,7 +46289,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -47197,7 +47197,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -48105,7 +48105,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -49013,7 +49013,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -49653,7 +49653,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -50561,7 +50561,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -51469,7 +51469,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -52385,7 +52385,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -53285,7 +53285,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -54173,7 +54173,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -55085,7 +55085,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -55997,7 +55997,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -56829,7 +56829,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -57729,7 +57729,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -58633,7 +58633,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -59525,7 +59525,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -60365,7 +60365,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -61177,7 +61177,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -61909,7 +61909,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -62829,7 +62829,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -63609,7 +63609,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -64529,7 +64529,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -65201,7 +65201,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -65997,7 +65997,7 @@
       <c r="HE75" t="inlineStr"/>
       <c r="HF75" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -66677,7 +66677,7 @@
       </c>
       <c r="HF76" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -67517,7 +67517,7 @@
       </c>
       <c r="HF77" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -68077,7 +68077,7 @@
       <c r="HE78" t="inlineStr"/>
       <c r="HF78" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -68993,7 +68993,7 @@
       </c>
       <c r="HF79" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -69849,7 +69849,7 @@
       </c>
       <c r="HF80" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -70681,7 +70681,7 @@
       </c>
       <c r="HF81" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -71597,7 +71597,7 @@
       </c>
       <c r="HF82" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -72469,7 +72469,7 @@
       </c>
       <c r="HF83" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -73377,7 +73377,7 @@
       </c>
       <c r="HF84" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -74016,12 +74016,12 @@
       </c>
       <c r="EO85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EP85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EQ85" t="inlineStr">
@@ -74062,7 +74062,7 @@
       </c>
       <c r="FC85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FD85" t="inlineStr"/>
@@ -74080,7 +74080,7 @@
       </c>
       <c r="FI85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ85" t="inlineStr">
@@ -74168,7 +74168,7 @@
       <c r="GB85" t="inlineStr"/>
       <c r="GC85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GD85" t="inlineStr">
@@ -74183,7 +74183,7 @@
       </c>
       <c r="GF85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GG85" t="inlineStr">
@@ -74193,7 +74193,7 @@
       </c>
       <c r="GH85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GI85" t="inlineStr"/>
@@ -74293,7 +74293,7 @@
       </c>
       <c r="HF85" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -75133,7 +75133,7 @@
       </c>
       <c r="HF86" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -76025,7 +76025,7 @@
       </c>
       <c r="HF87" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -76941,7 +76941,7 @@
       </c>
       <c r="HF88" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -77785,7 +77785,7 @@
       </c>
       <c r="HF89" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -78653,7 +78653,7 @@
       </c>
       <c r="HF90" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -79505,7 +79505,7 @@
       <c r="HE91" t="inlineStr"/>
       <c r="HF91" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -80413,7 +80413,7 @@
       </c>
       <c r="HF92" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -81289,7 +81289,7 @@
       </c>
       <c r="HF93" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -82073,7 +82073,7 @@
       <c r="HE94" t="inlineStr"/>
       <c r="HF94" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -82993,7 +82993,7 @@
       </c>
       <c r="HF95" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -83901,7 +83901,7 @@
       </c>
       <c r="HF96" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -84785,7 +84785,7 @@
       </c>
       <c r="HF97" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -85693,7 +85693,7 @@
       </c>
       <c r="HF98" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -86525,7 +86525,7 @@
       </c>
       <c r="HF99" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -87421,7 +87421,7 @@
       <c r="HE100" t="inlineStr"/>
       <c r="HF100" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -88333,7 +88333,7 @@
       </c>
       <c r="HF101" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -89245,7 +89245,7 @@
       </c>
       <c r="HF102" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
@@ -90077,7 +90077,7 @@
       </c>
       <c r="HF103" t="inlineStr">
         <is>
-          <t>2025-05-19 05:33:05</t>
+          <t>2025-05-19 19:33:10</t>
         </is>
       </c>
     </row>
